--- a/contact_submissions.xlsx
+++ b/contact_submissions.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2326,7 +2326,6 @@
           <t>NEPLAN OEM / SaS Webservice</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
           <t>127.0.0.1</t>
@@ -2335,6 +2334,59 @@
       <c r="K50" t="inlineStr">
         <is>
           <t>http://127.0.0.1:8000/contact/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-13 07:16:14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Diksha</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>diksha@iengaust.com.au</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>+919168627258</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>+91</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>192.168.1.37</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>http://192.168.1.37:8001/</t>
         </is>
       </c>
     </row>
